--- a/biology/Biochimie/Hans_von_Euler-Chelpin/Hans_von_Euler-Chelpin.xlsx
+++ b/biology/Biochimie/Hans_von_Euler-Chelpin/Hans_von_Euler-Chelpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hans Karl August Simon von Euler-Chelpin (15 février 1873 à Augsbourg, Royaume de Bavière - 6 novembre 1964 à Stockholm) est un biochimiste suédois co-lauréat du prix Nobel de chimie en 1929 avec Arthur Harden « pour leurs recherches sur la fermentation du sucre et des enzymes de fermentation[1] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans Karl August Simon von Euler-Chelpin (15 février 1873 à Augsbourg, Royaume de Bavière - 6 novembre 1964 à Stockholm) est un biochimiste suédois co-lauréat du prix Nobel de chimie en 1929 avec Arthur Harden « pour leurs recherches sur la fermentation du sucre et des enzymes de fermentation ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut professeur de chimie générale et organique à l'université de Stockholm de 1906 à 1941 et directeur de l'Institut de recherche en chimie organique de 1938 à 1948.
 En 1942, il devient membre de l'Académie royale des sciences et des lettres de Berlin.
